--- a/Outputs_study2/BetweenAnalysis (AI-Humans).xlsx
+++ b/Outputs_study2/BetweenAnalysis (AI-Humans).xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\u_backup\chatGPT\Revision\Nature human behavior\Final version\Data and Code\Outputs_study2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\u_backup\chatGPT\Revision\Scientific reports\Data and Code\Outputs_study2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE6BA563-E50A-41C1-BB02-A9A22E0A8B75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA12A5E1-F64D-4B7B-BD23-8598DCB45D57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45972" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-83" yWindow="0" windowWidth="14566" windowHeight="15563" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$G$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$I$35</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="34">
   <si>
     <t>domain</t>
   </si>
@@ -44,6 +44,12 @@
   </si>
   <si>
     <t>subject</t>
+  </si>
+  <si>
+    <t>p_value</t>
+  </si>
+  <si>
+    <t>p_adj</t>
   </si>
   <si>
     <t>Sense of fairness</t>
@@ -141,24 +147,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -173,11 +167,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -474,19 +465,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G35"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C20" sqref="C20:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="39.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.73046875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -508,36 +502,48 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2">
         <v>1.86275234138167</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2">
         <v>1.0224195628060899</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2">
         <v>2.7030851199572599</v>
       </c>
       <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2">
+        <v>8.1157715831257707E-2</v>
+      </c>
+      <c r="I2">
+        <v>0.10821028777501</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3">
         <v>0.70199980902414205</v>
@@ -549,18 +555,24 @@
         <v>1.4328022733961401</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+        <v>12</v>
+      </c>
+      <c r="H3">
+        <v>0.51102044897479404</v>
+      </c>
+      <c r="I3">
+        <v>0.51102044897479404</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C4">
         <v>-0.33445813724951201</v>
@@ -572,64 +584,82 @@
         <v>0.49150466488064498</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+        <v>12</v>
+      </c>
+      <c r="H4">
+        <v>0.75417619349151799</v>
+      </c>
+      <c r="I4">
+        <v>0.75417619349151799</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="1">
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5">
         <v>-0.98082925301172597</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5">
         <v>-1.7661953400133801</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5">
         <v>-0.19546316601006999</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+        <v>12</v>
+      </c>
+      <c r="H5">
+        <v>0.35845944718699702</v>
+      </c>
+      <c r="I5">
+        <v>0.47794592958266202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="1">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6">
         <v>-2.7472709142554899</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6">
         <v>-4.2303357888336999</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6">
         <v>-1.2642060396772801</v>
       </c>
       <c r="F6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+        <v>12</v>
+      </c>
+      <c r="H6">
+        <v>1.01071647975175E-2</v>
+      </c>
+      <c r="I6">
+        <v>1.34762197300233E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C7">
         <v>1.24225199985571E-2</v>
@@ -641,18 +671,24 @@
         <v>0.75851623956004899</v>
       </c>
       <c r="F7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+        <v>12</v>
+      </c>
+      <c r="H7">
+        <v>0.99072031360145696</v>
+      </c>
+      <c r="I7">
+        <v>0.99072031360145696</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C8">
         <v>0.28851784349917697</v>
@@ -664,432 +700,546 @@
         <v>1.0156192620626601</v>
       </c>
       <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8">
+        <v>0.78706350464399899</v>
+      </c>
+      <c r="I8">
+        <v>0.78706350464399899</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9">
+        <v>1.5995612889381901</v>
+      </c>
+      <c r="D9">
+        <v>0.802024999186842</v>
+      </c>
+      <c r="E9">
+        <v>2.3970975786895301</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9">
+        <v>0.13423866022924599</v>
+      </c>
+      <c r="I9">
+        <v>0.161086392275096</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10">
+        <v>2.1192630358665099</v>
+      </c>
+      <c r="D10">
+        <v>1.1076882764364999</v>
+      </c>
+      <c r="E10">
+        <v>3.1308377952965198</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10">
+        <v>4.72372434444173E-2</v>
+      </c>
+      <c r="I10">
+        <v>7.0855865166625898E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11">
+        <v>1.06471073699243</v>
+      </c>
+      <c r="D11">
+        <v>0.156918223511293</v>
+      </c>
+      <c r="E11">
+        <v>1.97250325047356</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11">
+        <v>0.31884273392264401</v>
+      </c>
+      <c r="I11">
+        <v>0.31884273392264401</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12">
+        <v>2.4696391776572102</v>
+      </c>
+      <c r="D12">
+        <v>1.5434101459663301</v>
+      </c>
+      <c r="E12">
+        <v>3.3958682093480901</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12">
+        <v>2.07662437395928E-2</v>
+      </c>
+      <c r="I12">
+        <v>4.1532487479185601E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13">
+        <v>1.9459101490553099</v>
+      </c>
+      <c r="D13">
+        <v>1.1054166568717201</v>
+      </c>
+      <c r="E13">
+        <v>2.7864036412389099</v>
+      </c>
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13">
+        <v>6.8475525985680893E-2</v>
+      </c>
+      <c r="I13">
+        <v>0.102713288978521</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
         <v>9</v>
       </c>
-      <c r="G8" t="s">
+      <c r="B14" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
+      <c r="C14">
+        <v>-3.3158375327109999</v>
+      </c>
+      <c r="D14">
+        <v>-5.4188662218519301</v>
+      </c>
+      <c r="E14">
+        <v>-1.2128088435700699</v>
+      </c>
+      <c r="F14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14">
+        <v>1.90624400694217E-3</v>
+      </c>
+      <c r="I14">
+        <v>3.81248801388434E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>-4.2294580360292704</v>
+      </c>
+      <c r="D15">
+        <v>-6.2932214878799302</v>
+      </c>
+      <c r="E15">
+        <v>-2.1656945841786199</v>
+      </c>
+      <c r="F15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15">
+        <v>7.4998830441153102E-5</v>
+      </c>
+      <c r="I15">
+        <v>2.9999532176461197E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>3.4519697070355799</v>
+      </c>
+      <c r="D16">
+        <v>1.3582446685790801</v>
+      </c>
+      <c r="E16">
+        <v>5.5456947454920797</v>
+      </c>
+      <c r="F16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16">
+        <v>1.2296244057208301E-3</v>
+      </c>
+      <c r="I16">
+        <v>4.9184976228833204E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>-0.98082925301172597</v>
+      </c>
+      <c r="D17">
+        <v>-1.7661953400133801</v>
+      </c>
+      <c r="E17">
+        <v>-0.19546316601006999</v>
+      </c>
+      <c r="F17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17">
+        <v>0.35845944718699702</v>
+      </c>
+      <c r="I17">
+        <v>0.47794592958266202</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C18">
+        <v>-3.44564914423299</v>
+      </c>
+      <c r="D18">
+        <v>-4.9359038865494904</v>
+      </c>
+      <c r="E18">
+        <v>-1.9553944019164899</v>
+      </c>
+      <c r="F18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18">
+        <v>1.2553330871491999E-3</v>
+      </c>
+      <c r="I18">
+        <v>2.5106661742983999E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19">
+        <v>-4.72048103249909</v>
+      </c>
+      <c r="D19">
+        <v>-6.79050044941423</v>
+      </c>
+      <c r="E19">
+        <v>-2.6504616155839398</v>
+      </c>
+      <c r="F19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19">
+        <v>9.8899510576622197E-6</v>
+      </c>
+      <c r="I19">
+        <v>3.9559804230648899E-5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="1">
-        <v>1.5995612889381901</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0.802024999186842</v>
-      </c>
-      <c r="E9" s="1">
-        <v>2.3970975786895301</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20">
+        <v>-4.80617575360397</v>
+      </c>
+      <c r="D20">
+        <v>-6.86741204727916</v>
+      </c>
+      <c r="E20">
+        <v>-2.74493945992878</v>
+      </c>
+      <c r="F20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20">
+        <v>6.8018216372589501E-6</v>
+      </c>
+      <c r="I20">
+        <v>4.0810929823553701E-5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21">
+        <v>-2.8759310737413699</v>
+      </c>
+      <c r="D21">
+        <v>-4.4355097201013498</v>
+      </c>
+      <c r="E21">
+        <v>-1.31635242738139</v>
+      </c>
+      <c r="F21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21">
+        <v>7.0897327903685099E-3</v>
+      </c>
+      <c r="I21">
+        <v>2.12691983711055E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22">
+        <v>-2.6136405166311398</v>
+      </c>
+      <c r="D22">
+        <v>-4.7934588673091199</v>
+      </c>
+      <c r="E22">
+        <v>-0.43382216595314699</v>
+      </c>
+      <c r="F22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22">
+        <v>1.4403910807919E-2</v>
+      </c>
+      <c r="I22">
+        <v>2.88078216158381E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23">
+        <v>-5.3082676974012104</v>
+      </c>
+      <c r="D23">
+        <v>-7.4066786104910598</v>
+      </c>
+      <c r="E23">
+        <v>-3.2098567843113499</v>
+      </c>
+      <c r="F23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" t="s">
+        <v>28</v>
+      </c>
+      <c r="H23">
+        <v>6.6993407754623004E-7</v>
+      </c>
+      <c r="I23">
+        <v>4.0196044652773796E-6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24">
+        <v>-1.56701206833187</v>
+      </c>
+      <c r="D24">
+        <v>-2.4642980583145202</v>
+      </c>
+      <c r="E24">
+        <v>-0.66972607834922104</v>
+      </c>
+      <c r="F24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" t="s">
+        <v>28</v>
+      </c>
+      <c r="H24">
+        <v>0.14234338814300301</v>
+      </c>
+      <c r="I24">
+        <v>0.17081206577160399</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25">
+        <v>-3.7941399647714298</v>
+      </c>
+      <c r="D25">
+        <v>-5.8875522386499801</v>
+      </c>
+      <c r="E25">
+        <v>-1.7007276908928799</v>
+      </c>
+      <c r="F25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" t="s">
+        <v>28</v>
+      </c>
+      <c r="H25">
+        <v>3.8191437983381399E-4</v>
+      </c>
+      <c r="I25">
+        <v>1.14574313950144E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
         <v>9</v>
       </c>
-      <c r="G9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="1">
-        <v>2.1192630358665099</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1.1076882764364999</v>
-      </c>
-      <c r="E10" s="1">
-        <v>3.1308377952965198</v>
-      </c>
-      <c r="F10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1.06471073699243</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0.156918223511293</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1.97250325047356</v>
-      </c>
-      <c r="F11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="1">
-        <v>2.4696391776572102</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1.5434101459663301</v>
-      </c>
-      <c r="E12" s="1">
-        <v>3.3958682093480901</v>
-      </c>
-      <c r="F12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="1">
-        <v>1.9459101490553099</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1.1054166568717201</v>
-      </c>
-      <c r="E13" s="1">
-        <v>2.7864036412389099</v>
-      </c>
-      <c r="F13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="3">
-        <v>-3.3158375327109999</v>
-      </c>
-      <c r="D14" s="3">
-        <v>-5.4188662218519301</v>
-      </c>
-      <c r="E14" s="3">
-        <v>-1.2128088435700699</v>
-      </c>
-      <c r="F14" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="3">
-        <v>-4.2294580360292704</v>
-      </c>
-      <c r="D15" s="3">
-        <v>-6.2932214878799302</v>
-      </c>
-      <c r="E15" s="3">
-        <v>-2.1656945841786199</v>
-      </c>
-      <c r="F15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="3">
-        <v>3.4519697070355799</v>
-      </c>
-      <c r="D16" s="3">
-        <v>1.3582446685790801</v>
-      </c>
-      <c r="E16" s="3">
-        <v>5.5456947454920797</v>
-      </c>
-      <c r="F16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="3" t="s">
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26">
+        <v>1.26307941778913</v>
+      </c>
+      <c r="D26">
+        <v>0.12619175467643801</v>
+      </c>
+      <c r="E26">
+        <v>2.3999670809018201</v>
+      </c>
+      <c r="F26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26">
+        <v>0.236982711340779</v>
+      </c>
+      <c r="I26">
+        <v>0.236982711340779</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="3">
-        <v>-0.98082925301172597</v>
-      </c>
-      <c r="D17" s="3">
-        <v>-1.7661953400133801</v>
-      </c>
-      <c r="E17" s="3">
-        <v>-0.19546316601006999</v>
-      </c>
-      <c r="F17" t="s">
-        <v>9</v>
-      </c>
-      <c r="G17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="3">
-        <v>-3.44564914423299</v>
-      </c>
-      <c r="D18" s="3">
-        <v>-4.9359038865494904</v>
-      </c>
-      <c r="E18" s="3">
-        <v>-1.9553944019164899</v>
-      </c>
-      <c r="F18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="3">
-        <v>-4.72048103249909</v>
-      </c>
-      <c r="D19" s="3">
-        <v>-6.79050044941423</v>
-      </c>
-      <c r="E19" s="3">
-        <v>-2.6504616155839398</v>
-      </c>
-      <c r="F19" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="3">
-        <v>-4.80617575360397</v>
-      </c>
-      <c r="D20" s="3">
-        <v>-6.86741204727916</v>
-      </c>
-      <c r="E20" s="3">
-        <v>-2.74493945992878</v>
-      </c>
-      <c r="F20" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="3">
-        <v>-2.8759310737413699</v>
-      </c>
-      <c r="D21" s="3">
-        <v>-4.4355097201013498</v>
-      </c>
-      <c r="E21" s="3">
-        <v>-1.31635242738139</v>
-      </c>
-      <c r="F21" t="s">
-        <v>9</v>
-      </c>
-      <c r="G21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="3">
-        <v>-2.6136405166311398</v>
-      </c>
-      <c r="D22" s="3">
-        <v>-4.7934588673091199</v>
-      </c>
-      <c r="E22" s="3">
-        <v>-0.43382216595314699</v>
-      </c>
-      <c r="F22" t="s">
-        <v>9</v>
-      </c>
-      <c r="G22" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="3">
-        <v>-5.3082676974012104</v>
-      </c>
-      <c r="D23" s="3">
-        <v>-7.4066786104910598</v>
-      </c>
-      <c r="E23" s="3">
-        <v>-3.2098567843113499</v>
-      </c>
-      <c r="F23" t="s">
-        <v>9</v>
-      </c>
-      <c r="G23" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="3">
-        <v>-1.56701206833187</v>
-      </c>
-      <c r="D24" s="3">
-        <v>-2.4642980583145202</v>
-      </c>
-      <c r="E24" s="3">
-        <v>-0.66972607834922104</v>
-      </c>
-      <c r="F24" t="s">
-        <v>9</v>
-      </c>
-      <c r="G24" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="3">
-        <v>-3.7941399647714298</v>
-      </c>
-      <c r="D25" s="3">
-        <v>-5.8875522386499801</v>
-      </c>
-      <c r="E25" s="3">
-        <v>-1.7007276908928799</v>
-      </c>
-      <c r="F25" t="s">
-        <v>9</v>
-      </c>
-      <c r="G25" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="2">
-        <v>1.26307941778913</v>
-      </c>
-      <c r="D26" s="2">
-        <v>0.12619175467643801</v>
-      </c>
-      <c r="E26" s="2">
-        <v>2.3999670809018201</v>
-      </c>
-      <c r="F26" t="s">
-        <v>9</v>
-      </c>
-      <c r="G26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
-        <v>12</v>
-      </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C27">
         <v>-0.67081615757452695</v>
@@ -1101,18 +1251,24 @@
         <v>-3.7910461002176501E-2</v>
       </c>
       <c r="F27" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G27" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+        <v>12</v>
+      </c>
+      <c r="H27">
+        <v>0.52996870442691901</v>
+      </c>
+      <c r="I27">
+        <v>0.52996870442691901</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C28">
         <v>-1.2899415518011801</v>
@@ -1124,18 +1280,24 @@
         <v>1.41024115835814</v>
       </c>
       <c r="F28" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G28" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+        <v>12</v>
+      </c>
+      <c r="H28">
+        <v>0.22715808641681701</v>
+      </c>
+      <c r="I28">
+        <v>0.22715808641681701</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C29">
         <v>1.2976310124510699</v>
@@ -1147,18 +1309,24 @@
         <v>2.3868912847478301</v>
       </c>
       <c r="F29" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G29" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+        <v>12</v>
+      </c>
+      <c r="H29">
+        <v>0.22439995581377001</v>
+      </c>
+      <c r="I29">
+        <v>0.22439995581377001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C30">
         <v>1.8256323725727399</v>
@@ -1170,18 +1338,24 @@
         <v>2.6086060041097001</v>
       </c>
       <c r="F30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30">
+        <v>8.7403875020880803E-2</v>
+      </c>
+      <c r="I30">
+        <v>8.7403875020880803E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
         <v>9</v>
       </c>
-      <c r="G30" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
-        <v>7</v>
-      </c>
       <c r="B31" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C31">
         <v>-3.7812564068685601</v>
@@ -1193,18 +1367,24 @@
         <v>-2.3082691353165101</v>
       </c>
       <c r="F31" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G31" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+        <v>28</v>
+      </c>
+      <c r="H31">
+        <v>3.9980347356860502E-4</v>
+      </c>
+      <c r="I31">
+        <v>7.9960694713721004E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B32" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C32">
         <v>1.1249643743810001</v>
@@ -1216,18 +1396,24 @@
         <v>5.4636150430267003</v>
       </c>
       <c r="F32" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G32" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+        <v>28</v>
+      </c>
+      <c r="H32">
+        <v>0.29222573203115498</v>
+      </c>
+      <c r="I32">
+        <v>0.52996870442691901</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B33" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C33">
         <v>-3.8808308125457902</v>
@@ -1239,18 +1425,24 @@
         <v>-2.67139379665376</v>
       </c>
       <c r="F33" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G33" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+        <v>28</v>
+      </c>
+      <c r="H33">
+        <v>2.7966712529115E-4</v>
+      </c>
+      <c r="I33">
+        <v>5.5933425058230001E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B34" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C34">
         <v>-3.3725094959339801</v>
@@ -1262,18 +1454,24 @@
         <v>-2.0947140547559902</v>
       </c>
       <c r="F34" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G34" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+        <v>28</v>
+      </c>
+      <c r="H34">
+        <v>1.59115750175975E-3</v>
+      </c>
+      <c r="I34">
+        <v>3.18231500351951E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B35" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C35">
         <v>-3.4100636744222701</v>
@@ -1285,14 +1483,42 @@
         <v>-1.0086913301764799</v>
       </c>
       <c r="F35" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G35" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="H35">
+        <v>1.4095754767957699E-3</v>
+      </c>
+      <c r="I35">
+        <v>2.8191509535915298E-3</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G35" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:I35" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="6 kin"/>
+        <filter val="6 kin (two-thirds)"/>
+        <filter val="6 lives"/>
+        <filter val="6 lives (fairness)"/>
+        <filter val="6 lives (two-thirds)"/>
+        <filter val="600 lives"/>
+        <filter val="600 lives (fairness)"/>
+        <filter val="600 lives (two-thirds)"/>
+        <filter val="MSO-6 kin"/>
+        <filter val="MSY-6 kin"/>
+        <filter val="YSO-6 kin"/>
+        <filter val="YSY-6 kin"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="6">
+      <filters>
+        <filter val="GPT-4"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
